--- a/Protocols/Protocols.xlsx
+++ b/Protocols/Protocols.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
-    <sheet name="Protocols" sheetId="1" r:id="rId1"/>
+    <sheet name="MBEE" sheetId="1" r:id="rId1"/>
     <sheet name="MIRP2" sheetId="2" r:id="rId2"/>
     <sheet name="MBT" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="86">
   <si>
     <t>Connect</t>
   </si>
@@ -97,9 +97,6 @@
     <t>DESCRIPTION</t>
   </si>
   <si>
-    <t>XBEE</t>
-  </si>
-  <si>
     <t>UNI</t>
   </si>
   <si>
@@ -277,17 +274,23 @@
     <t xml:space="preserve">…more to come </t>
   </si>
   <si>
-    <t>This still needs a bit of work, but this is the basic outline</t>
-  </si>
-  <si>
     <t>FD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• </t>
+  </si>
+  <si>
+    <t>SW Version</t>
+  </si>
+  <si>
+    <t>DFU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,13 +308,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -355,13 +351,6 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="28"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -455,7 +444,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -594,26 +583,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color indexed="64"/>
       </left>
@@ -652,17 +621,6 @@
       <bottom style="double">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -792,30 +750,78 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -827,10 +833,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
@@ -843,149 +849,76 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="3" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="3" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="24" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="9" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="8" borderId="7" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="8" borderId="8" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
@@ -994,13 +927,86 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="7" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="8" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="9" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="28" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent3" xfId="3" builtinId="38"/>
@@ -1049,7 +1055,7 @@
       <xdr:col>24</xdr:col>
       <xdr:colOff>129554</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1097,13 +1103,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>163390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>103309</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1112,21 +1118,22 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect l="4829" r="4262"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1457325"/>
-          <a:ext cx="9144000" cy="1676399"/>
+          <a:off x="0" y="1592140"/>
+          <a:ext cx="9144000" cy="1406769"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1411,10 +1418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:M22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1427,336 +1434,9 @@
     <col min="6" max="13" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-    </row>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="40"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="36"/>
-      <c r="J3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="42"/>
-      <c r="J4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="43"/>
-      <c r="H5" s="36"/>
-      <c r="J5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="48"/>
-      <c r="J6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="50"/>
-    </row>
-    <row r="8" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="50"/>
-      <c r="G8" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="50"/>
-    </row>
-    <row r="9" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="50"/>
-      <c r="G9" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" s="53"/>
-    </row>
-    <row r="10" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" s="45"/>
-    </row>
-    <row r="11" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="28"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-    </row>
-    <row r="12" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="28"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-    </row>
-    <row r="13" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="28"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="P24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="P25" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="P26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="P27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="P28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="F5:H5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O286"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" customWidth="1"/>
-    <col min="3" max="8" width="9" customWidth="1"/>
-    <col min="9" max="12" width="6.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
     <row r="1" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -1774,13 +1454,477 @@
       <c r="O1" s="14"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="55"/>
+      <c r="A2" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="62"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+    </row>
+    <row r="3" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+    </row>
+    <row r="4" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="62"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+    </row>
+    <row r="5" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+    </row>
+    <row r="6" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+    </row>
+    <row r="7" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+    </row>
+    <row r="8" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="55"/>
+    </row>
+    <row r="9" spans="1:15" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="58"/>
+      <c r="J9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="58"/>
+      <c r="G10" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="60"/>
+      <c r="J10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="57"/>
+      <c r="H11" s="58"/>
+      <c r="J11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="72"/>
+      <c r="J12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="48"/>
+    </row>
+    <row r="14" spans="1:15" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="48"/>
+      <c r="G14" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="48"/>
+    </row>
+    <row r="15" spans="1:15" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="48"/>
+      <c r="G15" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="51"/>
+    </row>
+    <row r="16" spans="1:15" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="31"/>
+      <c r="G16" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="52"/>
+    </row>
+    <row r="17" spans="1:16" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="28"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+    </row>
+    <row r="18" spans="1:16" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="28"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+    </row>
+    <row r="19" spans="1:16" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="28"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+    </row>
+    <row r="20" spans="1:16" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="P29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="P30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="P31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="34" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+    </row>
+    <row r="35" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E8:H8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O286"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" customWidth="1"/>
+    <col min="3" max="8" width="9" customWidth="1"/>
+    <col min="9" max="12" width="6.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+    </row>
+    <row r="2" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="62"/>
       <c r="C2" s="15"/>
       <c r="D2" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
@@ -1796,12 +1940,12 @@
     </row>
     <row r="3" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
       <c r="D3" s="32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E3" s="22"/>
       <c r="F3" s="22"/>
@@ -1816,13 +1960,13 @@
       <c r="O3" s="14"/>
     </row>
     <row r="4" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="55"/>
+      <c r="A4" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="62"/>
       <c r="C4" s="15"/>
       <c r="D4" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
@@ -1838,11 +1982,11 @@
     </row>
     <row r="5" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" s="32"/>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E5" s="32"/>
       <c r="F5" s="32"/>
@@ -1857,11 +2001,11 @@
       <c r="O5" s="14"/>
     </row>
     <row r="6" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
+      <c r="A6" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
@@ -2030,11 +2174,11 @@
     </row>
     <row r="16" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
@@ -2049,25 +2193,25 @@
       <c r="N16" s="14"/>
       <c r="O16" s="14"/>
     </row>
-    <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="54"/>
+      <c r="D17" s="61"/>
       <c r="E17" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H17" s="16" t="s">
         <v>6</v>
@@ -2080,12 +2224,12 @@
       <c r="N17" s="14"/>
       <c r="O17" s="14"/>
     </row>
-    <row r="18" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="19">
         <v>45</v>
@@ -2114,12 +2258,12 @@
       <c r="N18" s="14"/>
       <c r="O18" s="14"/>
     </row>
-    <row r="19" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="21" t="str">
         <f>HEX2BIN(C18, 8)</f>
@@ -2153,9 +2297,9 @@
       <c r="N19" s="14"/>
       <c r="O19" s="14"/>
     </row>
-    <row r="20" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="14"/>
       <c r="C20" s="13"/>
@@ -2172,58 +2316,58 @@
       <c r="N20" s="14"/>
       <c r="O20" s="14"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="10"/>
       <c r="C24" s="9"/>
       <c r="D24" s="10"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E26" s="8"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E27" s="8"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E28" s="8"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E29" s="8"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E30" s="8"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E31" s="8"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E32" s="8"/>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E33" s="8"/>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E34" s="8"/>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E35" s="9"/>
     </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E36" s="9"/>
     </row>
     <row r="37" spans="5:5" x14ac:dyDescent="0.25">
@@ -3011,10 +3155,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3023,9 +3167,9 @@
     <col min="2" max="2" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -3033,50 +3177,50 @@
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="39" t="s">
         <v>66</v>
-      </c>
-      <c r="B2" s="59" t="s">
-        <v>67</v>
       </c>
       <c r="E2" s="34"/>
       <c r="F2" s="34"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="34" t="s">
         <v>68</v>
-      </c>
-      <c r="B3" s="34" t="s">
-        <v>69</v>
       </c>
       <c r="E3" s="34"/>
       <c r="F3" s="34"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="34" t="s">
         <v>68</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>69</v>
       </c>
       <c r="E4" s="34"/>
       <c r="F4" s="34"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>68</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>69</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -3084,12 +3228,12 @@
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>4</v>
@@ -3097,21 +3241,21 @@
       <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="58" t="s">
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="38" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="60" t="s">
-        <v>70</v>
+      <c r="B8" s="40" t="s">
+        <v>69</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>15</v>
@@ -3119,21 +3263,21 @@
       <c r="D8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="61" t="s">
-        <v>71</v>
-      </c>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="56" t="s">
+      <c r="E8" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="36" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="60" t="s">
-        <v>70</v>
+      <c r="B9" s="40" t="s">
+        <v>69</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>15</v>
@@ -3141,23 +3285,23 @@
       <c r="D9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="42"/>
+      <c r="F9" s="60"/>
       <c r="G9" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="H9" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="36" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" s="60" t="s">
-        <v>70</v>
+        <v>74</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>69</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>15</v>
@@ -3165,45 +3309,45 @@
       <c r="D10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="61" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="56" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="40" t="s">
         <v>73</v>
-      </c>
-      <c r="B11" s="60" t="s">
-        <v>74</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="G11" s="64"/>
-      <c r="H11" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="66"/>
+      <c r="H11" s="37" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="60" t="s">
-        <v>72</v>
+      <c r="B12" s="40" t="s">
+        <v>71</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>15</v>
@@ -3211,106 +3355,115 @@
       <c r="D12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="61" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="56" t="s">
+      <c r="E12" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="36" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="D14" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="65"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="41"/>
       <c r="B15" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="66"/>
+    <row r="16" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="42"/>
       <c r="B16" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="67"/>
+    <row r="17" spans="1:5" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="43"/>
       <c r="B17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="68"/>
+    <row r="18" spans="1:5" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="44"/>
       <c r="B18" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="69"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="45"/>
       <c r="B19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="70"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="46"/>
       <c r="B20" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="71" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" s="72"/>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="73" t="s">
-        <v>83</v>
-      </c>
-    </row>
+      <c r="D20" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="64"/>
+    </row>
+    <row r="21" spans="1:5" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="D20:E20"/>
